--- a/outputs/c/_bellPepper_both.xlsx
+++ b/outputs/c/_bellPepper_both.xlsx
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -465,19 +462,22 @@
     <t>8M 52S</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>loose</t>
   </si>
   <si>
     <t>packaged</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity_1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
   <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I1" sqref="I1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -839,19 +839,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -862,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
@@ -874,25 +874,25 @@
         <v>690</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>27</v>
@@ -918,19 +918,19 @@
         <v>332</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>112</v>
@@ -956,19 +956,19 @@
         <v>888</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>56</v>
@@ -994,19 +994,19 @@
         <v>856</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>397</v>
@@ -1032,22 +1032,22 @@
         <v>2058</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>42</v>
@@ -1073,22 +1073,22 @@
         <v>374</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>120</v>
@@ -1114,19 +1114,19 @@
         <v>1024</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>78</v>
@@ -1152,22 +1152,22 @@
         <v>910</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>88</v>
@@ -1193,19 +1193,19 @@
         <v>1684</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
         <v>27</v>
@@ -1231,19 +1231,19 @@
         <v>294</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1254,25 +1254,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>36</v>
@@ -1295,10 +1295,10 @@
         <v>586</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>114</v>
@@ -1321,10 +1321,10 @@
         <v>1454</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1335,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>139</v>
@@ -1347,10 +1347,10 @@
         <v>1588</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1361,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>14</v>
@@ -1373,10 +1373,10 @@
         <v>184</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>99</v>
@@ -1399,10 +1399,10 @@
         <v>760</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>104</v>
@@ -1425,10 +1425,10 @@
         <v>768</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>120</v>
@@ -1451,10 +1451,10 @@
         <v>1060</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>292</v>
@@ -1477,10 +1477,10 @@
         <v>2062</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>328</v>
@@ -1503,10 +1503,10 @@
         <v>2414</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1517,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -1529,10 +1529,10 @@
         <v>76</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>9</v>
@@ -1555,10 +1555,10 @@
         <v>104</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1569,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>68</v>
@@ -1581,10 +1581,10 @@
         <v>916</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>78</v>
@@ -1607,10 +1607,10 @@
         <v>1056</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>80</v>
@@ -1633,10 +1633,10 @@
         <v>1100</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1647,7 +1647,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>151</v>
@@ -1659,10 +1659,10 @@
         <v>1692</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1673,7 +1673,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>303</v>
@@ -1685,10 +1685,10 @@
         <v>1444</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1699,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>311</v>
@@ -1711,10 +1711,10 @@
         <v>1480</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1725,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>316</v>
@@ -1737,10 +1737,10 @@
         <v>1492</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1751,7 +1751,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>320</v>
@@ -1763,10 +1763,10 @@
         <v>1500</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1777,7 +1777,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>383</v>
@@ -1789,10 +1789,10 @@
         <v>1992</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>385</v>
@@ -1815,10 +1815,10 @@
         <v>2002</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1829,7 +1829,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>466</v>
@@ -1841,10 +1841,10 @@
         <v>2378</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1855,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
         <v>470</v>
@@ -1867,10 +1867,10 @@
         <v>2522</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1881,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
         <v>479</v>
@@ -1893,10 +1893,10 @@
         <v>2640</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1907,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
@@ -1919,10 +1919,10 @@
         <v>92</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1933,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1">
         <v>36</v>
@@ -1945,10 +1945,10 @@
         <v>366</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1">
         <v>47</v>
@@ -1971,10 +1971,10 @@
         <v>492</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="1">
         <v>57</v>
@@ -1997,10 +1997,10 @@
         <v>574</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2011,7 +2011,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="1">
         <v>65</v>
@@ -2023,10 +2023,10 @@
         <v>630</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2037,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="1">
         <v>115</v>
@@ -2049,10 +2049,10 @@
         <v>1322</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2063,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="1">
         <v>184</v>
@@ -2075,10 +2075,10 @@
         <v>1846</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2089,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="1">
         <v>50</v>
@@ -2101,10 +2101,10 @@
         <v>538</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2115,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="1">
         <v>61</v>
@@ -2127,10 +2127,10 @@
         <v>550</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2141,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="1">
         <v>69</v>
@@ -2153,10 +2153,10 @@
         <v>592</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" s="1">
         <v>112</v>
@@ -2179,10 +2179,10 @@
         <v>800</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2193,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="1">
         <v>411</v>
@@ -2205,10 +2205,10 @@
         <v>2594</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2219,7 +2219,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="1">
         <v>69</v>
@@ -2231,10 +2231,10 @@
         <v>840</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1">
         <v>86</v>
@@ -2257,10 +2257,10 @@
         <v>1044</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2271,7 +2271,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1">
         <v>100</v>
@@ -2283,10 +2283,10 @@
         <v>1110</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2297,7 +2297,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="1">
         <v>104</v>
@@ -2309,10 +2309,10 @@
         <v>1162</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2323,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="1">
         <v>114</v>
@@ -2335,10 +2335,10 @@
         <v>1252</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="1">
         <v>146</v>
@@ -2361,10 +2361,10 @@
         <v>1632</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2375,7 +2375,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" s="1">
         <v>178</v>
@@ -2387,10 +2387,10 @@
         <v>2020</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2401,7 +2401,7 @@
         <v>17</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="1">
         <v>22</v>
@@ -2413,10 +2413,10 @@
         <v>182</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2427,7 +2427,7 @@
         <v>17</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="1">
         <v>76</v>
@@ -2439,10 +2439,10 @@
         <v>1544</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2453,7 +2453,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="1">
         <v>79</v>
@@ -2465,10 +2465,10 @@
         <v>1568</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="1">
         <v>82</v>
@@ -2491,10 +2491,10 @@
         <v>1586</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="1">
         <v>85</v>
@@ -2517,10 +2517,10 @@
         <v>1676</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2531,7 +2531,7 @@
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="1">
         <v>89</v>
@@ -2543,10 +2543,10 @@
         <v>1808</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2557,7 +2557,7 @@
         <v>17</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="1">
         <v>186</v>
@@ -2569,10 +2569,10 @@
         <v>2510</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2583,7 +2583,7 @@
         <v>19</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" s="1">
         <v>6</v>
@@ -2595,10 +2595,10 @@
         <v>108</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2609,7 +2609,7 @@
         <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="1">
         <v>7</v>
@@ -2621,10 +2621,10 @@
         <v>114</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2635,7 +2635,7 @@
         <v>19</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="1">
         <v>41</v>
@@ -2647,10 +2647,10 @@
         <v>400</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2661,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="1">
         <v>49</v>
@@ -2673,10 +2673,10 @@
         <v>532</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
